--- a/data/pca/factorExposure/factorExposure_2011-11-04.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-11-04.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.008266152424969244</v>
+        <v>0.01130177083784316</v>
       </c>
       <c r="C2">
-        <v>0.03278487424485024</v>
+        <v>0.02295972679323154</v>
       </c>
       <c r="D2">
-        <v>-0.0142707600976525</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.02282521011218794</v>
+      </c>
+      <c r="E2">
+        <v>0.009706313137160385</v>
+      </c>
+      <c r="F2">
+        <v>0.03727069647975013</v>
+      </c>
+      <c r="G2">
+        <v>0.001057208532909744</v>
+      </c>
+      <c r="H2">
+        <v>-0.01802293155219074</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.07453085845070075</v>
+        <v>0.08847177748769681</v>
       </c>
       <c r="C4">
-        <v>0.06452640265191013</v>
+        <v>0.02170921364585532</v>
       </c>
       <c r="D4">
-        <v>-0.07066628495523807</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08142367129897081</v>
+      </c>
+      <c r="E4">
+        <v>0.009203521692235244</v>
+      </c>
+      <c r="F4">
+        <v>0.04290245156925143</v>
+      </c>
+      <c r="G4">
+        <v>-0.02298373910395759</v>
+      </c>
+      <c r="H4">
+        <v>0.03348131714621922</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.10868432165577</v>
+        <v>0.1228416735411566</v>
       </c>
       <c r="C6">
-        <v>0.06179476655741165</v>
+        <v>0.04017564468743599</v>
       </c>
       <c r="D6">
-        <v>0.0004078303431874212</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.0214371215983866</v>
+      </c>
+      <c r="E6">
+        <v>-0.02711957942567136</v>
+      </c>
+      <c r="F6">
+        <v>0.03998904451595067</v>
+      </c>
+      <c r="G6">
+        <v>-0.05075011566207404</v>
+      </c>
+      <c r="H6">
+        <v>-0.1775475666309829</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.05607619599251581</v>
+        <v>0.06600027140511185</v>
       </c>
       <c r="C7">
-        <v>0.04078376694427705</v>
+        <v>0.00855062669070868</v>
       </c>
       <c r="D7">
-        <v>-0.0319769050644499</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05707128147610837</v>
+      </c>
+      <c r="E7">
+        <v>0.02323173216730917</v>
+      </c>
+      <c r="F7">
+        <v>0.04594854161120168</v>
+      </c>
+      <c r="G7">
+        <v>0.02663641207509078</v>
+      </c>
+      <c r="H7">
+        <v>0.0163101716292109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.03817528840557474</v>
+        <v>0.04334151081678819</v>
       </c>
       <c r="C8">
-        <v>0.01561156752921978</v>
+        <v>0.002540252636282671</v>
       </c>
       <c r="D8">
-        <v>-0.06357567422204806</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.02993248953944245</v>
+      </c>
+      <c r="E8">
+        <v>0.007716445467761322</v>
+      </c>
+      <c r="F8">
+        <v>0.07480090005210252</v>
+      </c>
+      <c r="G8">
+        <v>-0.08708764321518803</v>
+      </c>
+      <c r="H8">
+        <v>-0.007927018598296651</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.07176055703980511</v>
+        <v>0.08125800366581505</v>
       </c>
       <c r="C9">
-        <v>0.05089889275097977</v>
+        <v>0.01174743377485958</v>
       </c>
       <c r="D9">
-        <v>-0.06741376142017262</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.07107537216304816</v>
+      </c>
+      <c r="E9">
+        <v>0.02137926411480607</v>
+      </c>
+      <c r="F9">
+        <v>0.03790261259329727</v>
+      </c>
+      <c r="G9">
+        <v>-0.0339223085762778</v>
+      </c>
+      <c r="H9">
+        <v>0.03589664523536329</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.02456396700902403</v>
+        <v>0.05061765170254777</v>
       </c>
       <c r="C10">
-        <v>0.0136678691644042</v>
+        <v>0.1067618838405588</v>
       </c>
       <c r="D10">
-        <v>0.1719526561182316</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1594549962896068</v>
+      </c>
+      <c r="E10">
+        <v>0.02952731713654111</v>
+      </c>
+      <c r="F10">
+        <v>0.05708745847710796</v>
+      </c>
+      <c r="G10">
+        <v>0.0322048203201509</v>
+      </c>
+      <c r="H10">
+        <v>-0.03898373069743761</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.06684606217571526</v>
+        <v>0.07309471557681707</v>
       </c>
       <c r="C11">
-        <v>0.04518480767546805</v>
+        <v>0.004411473480115409</v>
       </c>
       <c r="D11">
-        <v>-0.05797420417511352</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.06559532979258963</v>
+      </c>
+      <c r="E11">
+        <v>0.003033770085331474</v>
+      </c>
+      <c r="F11">
+        <v>0.03570016205261889</v>
+      </c>
+      <c r="G11">
+        <v>-0.0443089563541609</v>
+      </c>
+      <c r="H11">
+        <v>0.0632975995055997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.05927432567003399</v>
+        <v>0.06768259085346996</v>
       </c>
       <c r="C12">
-        <v>0.0557162298251762</v>
+        <v>0.01743130809842993</v>
       </c>
       <c r="D12">
-        <v>-0.04563181279185106</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.05848403758096146</v>
+      </c>
+      <c r="E12">
+        <v>0.01081278546571854</v>
+      </c>
+      <c r="F12">
+        <v>0.02451612765796496</v>
+      </c>
+      <c r="G12">
+        <v>-0.0195729027476855</v>
+      </c>
+      <c r="H12">
+        <v>0.02910942818937189</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.06879644751825725</v>
+        <v>0.06994414649045058</v>
       </c>
       <c r="C13">
-        <v>0.05201080904270221</v>
+        <v>0.01748654723060954</v>
       </c>
       <c r="D13">
-        <v>-0.03517037713381038</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.04611162504934692</v>
+      </c>
+      <c r="E13">
+        <v>0.008226400766223038</v>
+      </c>
+      <c r="F13">
+        <v>0.02087873595922665</v>
+      </c>
+      <c r="G13">
+        <v>-0.0202478077444815</v>
+      </c>
+      <c r="H13">
+        <v>0.04759878737007794</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.0294892554765175</v>
+        <v>0.03952897417826802</v>
       </c>
       <c r="C14">
-        <v>0.03054337027217172</v>
+        <v>0.02349012537231771</v>
       </c>
       <c r="D14">
-        <v>0.004146320378485164</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.02070944919210272</v>
+      </c>
+      <c r="E14">
+        <v>0.02460284236079885</v>
+      </c>
+      <c r="F14">
+        <v>0.01751453715312571</v>
+      </c>
+      <c r="G14">
+        <v>-0.01609976698776807</v>
+      </c>
+      <c r="H14">
+        <v>0.06866249108711871</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.04042308897817905</v>
+        <v>0.039126882758766</v>
       </c>
       <c r="C15">
-        <v>0.01300531473716296</v>
+        <v>-0.000176948417164054</v>
       </c>
       <c r="D15">
-        <v>-0.02516718632598699</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.01304218391689005</v>
+      </c>
+      <c r="E15">
+        <v>0.03056291070411718</v>
+      </c>
+      <c r="F15">
+        <v>0.00366317864012812</v>
+      </c>
+      <c r="G15">
+        <v>-0.03134750269763319</v>
+      </c>
+      <c r="H15">
+        <v>0.03101913191476829</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.05710368217494916</v>
+        <v>0.06949066934366681</v>
       </c>
       <c r="C16">
-        <v>0.04216887692000217</v>
+        <v>0.006917031214769134</v>
       </c>
       <c r="D16">
-        <v>-0.05567020686719278</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.06641992437376901</v>
+      </c>
+      <c r="E16">
+        <v>0.005755039090432417</v>
+      </c>
+      <c r="F16">
+        <v>0.03037653189762157</v>
+      </c>
+      <c r="G16">
+        <v>-0.01883277015499034</v>
+      </c>
+      <c r="H16">
+        <v>0.04666953241195446</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1159,22 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1185,204 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.06209405994084204</v>
+        <v>0.06280851705788346</v>
       </c>
       <c r="C20">
-        <v>0.03164006540574512</v>
+        <v>-0.00115600977749463</v>
       </c>
       <c r="D20">
-        <v>-0.04704493082909321</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.04351910447945181</v>
+      </c>
+      <c r="E20">
+        <v>0.004824963609694398</v>
+      </c>
+      <c r="F20">
+        <v>0.02621480083109444</v>
+      </c>
+      <c r="G20">
+        <v>-0.02053600096449457</v>
+      </c>
+      <c r="H20">
+        <v>0.04299415355787101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.03274017715662298</v>
+        <v>0.02761263009722119</v>
       </c>
       <c r="C21">
-        <v>0.01064399245182325</v>
+        <v>-0.006972093940839585</v>
       </c>
       <c r="D21">
-        <v>-0.01009020203159987</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.01840769135764727</v>
+      </c>
+      <c r="E21">
+        <v>0.04024937865777339</v>
+      </c>
+      <c r="F21">
+        <v>-0.01133720389463733</v>
+      </c>
+      <c r="G21">
+        <v>-0.007622634142986087</v>
+      </c>
+      <c r="H21">
+        <v>-0.0411578633737047</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.08217442982470971</v>
+        <v>0.07416954077376352</v>
       </c>
       <c r="C22">
-        <v>0.08240244142876027</v>
+        <v>0.01619387994684623</v>
       </c>
       <c r="D22">
-        <v>-0.129907621643022</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.1068528451589801</v>
+      </c>
+      <c r="E22">
+        <v>0.6033467617503514</v>
+      </c>
+      <c r="F22">
+        <v>-0.03292608871028929</v>
+      </c>
+      <c r="G22">
+        <v>0.1857758259097499</v>
+      </c>
+      <c r="H22">
+        <v>-0.1438192365769675</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.08353768898553904</v>
+        <v>0.07534771352628788</v>
       </c>
       <c r="C23">
-        <v>0.08160466758429062</v>
+        <v>0.0150047387398033</v>
       </c>
       <c r="D23">
-        <v>-0.1308528875043683</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.1075553582292392</v>
+      </c>
+      <c r="E23">
+        <v>0.6049769872197244</v>
+      </c>
+      <c r="F23">
+        <v>-0.03244383631472906</v>
+      </c>
+      <c r="G23">
+        <v>0.1800228338880433</v>
+      </c>
+      <c r="H23">
+        <v>-0.140512056229764</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.07296304062737878</v>
+        <v>0.07930602620035793</v>
       </c>
       <c r="C24">
-        <v>0.05415361221671515</v>
+        <v>0.01160059566776253</v>
       </c>
       <c r="D24">
-        <v>-0.06011604501880927</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.06672839134661046</v>
+      </c>
+      <c r="E24">
+        <v>0.01242656620092804</v>
+      </c>
+      <c r="F24">
+        <v>0.03672705563145359</v>
+      </c>
+      <c r="G24">
+        <v>-0.03850255343146473</v>
+      </c>
+      <c r="H24">
+        <v>0.03144175128147569</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.0717134140869152</v>
+        <v>0.07797959418241453</v>
       </c>
       <c r="C25">
-        <v>0.05819520244990505</v>
+        <v>0.01874448506429714</v>
       </c>
       <c r="D25">
-        <v>-0.05536221373735459</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.0606673212439103</v>
+      </c>
+      <c r="E25">
+        <v>0.01799819243503005</v>
+      </c>
+      <c r="F25">
+        <v>0.03414200131301207</v>
+      </c>
+      <c r="G25">
+        <v>-0.04290827233326448</v>
+      </c>
+      <c r="H25">
+        <v>0.04126454967499039</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.04451194654764545</v>
+        <v>0.04566114273037349</v>
       </c>
       <c r="C26">
-        <v>0.01630946207675043</v>
+        <v>-0.0007061416335517699</v>
       </c>
       <c r="D26">
-        <v>-0.01334653218278555</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.01947067905500118</v>
+      </c>
+      <c r="E26">
+        <v>0.04309864203452595</v>
+      </c>
+      <c r="F26">
+        <v>0.02679054995760777</v>
+      </c>
+      <c r="G26">
+        <v>-0.02668935926498324</v>
+      </c>
+      <c r="H26">
+        <v>0.04584533819567703</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.040903260346423</v>
+        <v>0.07219177273643337</v>
       </c>
       <c r="C28">
-        <v>0.04407031137319493</v>
+        <v>0.1807833347196199</v>
       </c>
       <c r="D28">
-        <v>0.310957160267318</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2625424298624829</v>
+      </c>
+      <c r="E28">
+        <v>0.03375063690281854</v>
+      </c>
+      <c r="F28">
+        <v>0.05174507111174433</v>
+      </c>
+      <c r="G28">
+        <v>-0.02440500248410936</v>
+      </c>
+      <c r="H28">
+        <v>-0.06332954852966317</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.04334442195566559</v>
+        <v>0.04871796489599491</v>
       </c>
       <c r="C29">
-        <v>0.04289807390698704</v>
+        <v>0.02879903990465332</v>
       </c>
       <c r="D29">
-        <v>0.001528924177817825</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.02212196599515968</v>
+      </c>
+      <c r="E29">
+        <v>0.05035714510008782</v>
+      </c>
+      <c r="F29">
+        <v>0.02092848174448015</v>
+      </c>
+      <c r="G29">
+        <v>-0.00432079085593957</v>
+      </c>
+      <c r="H29">
+        <v>0.08984799289306879</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1293829368759454</v>
+        <v>0.1276624599900699</v>
       </c>
       <c r="C30">
-        <v>0.1066367283737698</v>
+        <v>0.03699658352164947</v>
       </c>
       <c r="D30">
-        <v>-0.1019926979818298</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.09804924218087153</v>
+      </c>
+      <c r="E30">
+        <v>0.05396629147414589</v>
+      </c>
+      <c r="F30">
+        <v>0.01961851329881632</v>
+      </c>
+      <c r="G30">
+        <v>-0.07919719808948709</v>
+      </c>
+      <c r="H30">
+        <v>-0.05083273061245427</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.0488616867357799</v>
+        <v>0.04882830429690264</v>
       </c>
       <c r="C31">
-        <v>0.02560034806144946</v>
+        <v>-0.0006809948208127154</v>
       </c>
       <c r="D31">
-        <v>-0.01884065623060588</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.03600102058322487</v>
+      </c>
+      <c r="E31">
+        <v>0.02295088122312303</v>
+      </c>
+      <c r="F31">
+        <v>0.01213460860264913</v>
+      </c>
+      <c r="G31">
+        <v>0.006217424107604356</v>
+      </c>
+      <c r="H31">
+        <v>0.06727695325274075</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.03510394060739477</v>
+        <v>0.03864526849063113</v>
       </c>
       <c r="C32">
-        <v>0.02789636462219928</v>
+        <v>0.02112708264184653</v>
       </c>
       <c r="D32">
-        <v>-0.02573862281764519</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.01348958832380904</v>
+      </c>
+      <c r="E32">
+        <v>0.04530585381548653</v>
+      </c>
+      <c r="F32">
+        <v>0.001002952043651871</v>
+      </c>
+      <c r="G32">
+        <v>-0.04578913864833967</v>
+      </c>
+      <c r="H32">
+        <v>0.01110343159326127</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.08417468668534542</v>
+        <v>0.09370704986461934</v>
       </c>
       <c r="C33">
-        <v>0.04850845850849227</v>
+        <v>0.009149851888890429</v>
       </c>
       <c r="D33">
-        <v>-0.04843943758729655</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.0568791274746734</v>
+      </c>
+      <c r="E33">
+        <v>0.01224821381818142</v>
+      </c>
+      <c r="F33">
+        <v>0.00144619564306335</v>
+      </c>
+      <c r="G33">
+        <v>-0.006031948955384267</v>
+      </c>
+      <c r="H33">
+        <v>0.0605906360611762</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.05804522505120029</v>
+        <v>0.06711328622406507</v>
       </c>
       <c r="C34">
-        <v>0.03013377967577387</v>
+        <v>0.0003534878372667965</v>
       </c>
       <c r="D34">
-        <v>-0.05319792503846061</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.04875609514018731</v>
+      </c>
+      <c r="E34">
+        <v>0.01330766377641246</v>
+      </c>
+      <c r="F34">
+        <v>0.02142614384967158</v>
+      </c>
+      <c r="G34">
+        <v>-0.02568990884246655</v>
+      </c>
+      <c r="H34">
+        <v>0.04841536158860922</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.0365900448271971</v>
+        <v>0.03779664148151884</v>
       </c>
       <c r="C35">
-        <v>0.01770567066368911</v>
+        <v>0.002826576992372411</v>
       </c>
       <c r="D35">
-        <v>-0.01845523962179079</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.0200589614249633</v>
+      </c>
+      <c r="E35">
+        <v>0.02097361507336888</v>
+      </c>
+      <c r="F35">
+        <v>-0.01456679351445513</v>
+      </c>
+      <c r="G35">
+        <v>0.003822152607937342</v>
+      </c>
+      <c r="H35">
+        <v>0.03358447276229501</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.02581404712366656</v>
+        <v>0.02788319844700402</v>
       </c>
       <c r="C36">
-        <v>0.02126249580747197</v>
+        <v>0.007700616315796108</v>
       </c>
       <c r="D36">
-        <v>-0.01974665234345962</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.02194192169716273</v>
+      </c>
+      <c r="E36">
+        <v>0.03336093696740043</v>
+      </c>
+      <c r="F36">
+        <v>0.02759405938163908</v>
+      </c>
+      <c r="G36">
+        <v>-0.01337155949154256</v>
+      </c>
+      <c r="H36">
+        <v>0.04227159914154142</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.05395357828760859</v>
+        <v>0.04942434370380887</v>
       </c>
       <c r="C38">
-        <v>0.01512817137130416</v>
+        <v>-0.008794676710370373</v>
       </c>
       <c r="D38">
-        <v>-0.004224819905177051</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.0232801557072906</v>
+      </c>
+      <c r="E38">
+        <v>0.04955305554349784</v>
+      </c>
+      <c r="F38">
+        <v>-0.002591067995559314</v>
+      </c>
+      <c r="G38">
+        <v>-0.003384880972941729</v>
+      </c>
+      <c r="H38">
+        <v>0.02684390092112555</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.08879968390209979</v>
+        <v>0.09962003484250202</v>
       </c>
       <c r="C39">
-        <v>0.08039301284978968</v>
+        <v>0.03409575661731091</v>
       </c>
       <c r="D39">
-        <v>-0.04508594487620533</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.07594423966366685</v>
+      </c>
+      <c r="E39">
+        <v>0.002676849914240307</v>
+      </c>
+      <c r="F39">
+        <v>0.005651933232765438</v>
+      </c>
+      <c r="G39">
+        <v>-0.05180241527319459</v>
+      </c>
+      <c r="H39">
+        <v>0.02238497910759455</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.07844193398909111</v>
+        <v>0.05857202985953348</v>
       </c>
       <c r="C40">
-        <v>0.04100750581317999</v>
+        <v>-0.008856949349755932</v>
       </c>
       <c r="D40">
-        <v>-0.01145696038020551</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03638780040178232</v>
+      </c>
+      <c r="E40">
+        <v>0.04261496506226188</v>
+      </c>
+      <c r="F40">
+        <v>-0.03698171046165822</v>
+      </c>
+      <c r="G40">
+        <v>-0.05948639211413803</v>
+      </c>
+      <c r="H40">
+        <v>-0.07229384144327544</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.04557348525260614</v>
+        <v>0.04577562882568444</v>
       </c>
       <c r="C41">
-        <v>0.02102971369289457</v>
+        <v>-0.005543939634468658</v>
       </c>
       <c r="D41">
-        <v>-0.03216572804816407</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.03476544125306557</v>
+      </c>
+      <c r="E41">
+        <v>0.002103284955187371</v>
+      </c>
+      <c r="F41">
+        <v>-0.01324747823237552</v>
+      </c>
+      <c r="G41">
+        <v>-0.005994301478768416</v>
+      </c>
+      <c r="H41">
+        <v>0.03554352815650927</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.0528256215384186</v>
+        <v>0.05933710530844882</v>
       </c>
       <c r="C43">
-        <v>0.0312775371495936</v>
+        <v>0.008083426958674146</v>
       </c>
       <c r="D43">
-        <v>-0.007884290270841568</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.03524812064513114</v>
+      </c>
+      <c r="E43">
+        <v>0.01882078524194456</v>
+      </c>
+      <c r="F43">
+        <v>0.01332027777177898</v>
+      </c>
+      <c r="G43">
+        <v>0.01844943505106052</v>
+      </c>
+      <c r="H43">
+        <v>0.05821065649786963</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.09558941439629451</v>
+        <v>0.09479410109645521</v>
       </c>
       <c r="C44">
-        <v>0.03661761973438198</v>
+        <v>-0.005292542565094613</v>
       </c>
       <c r="D44">
-        <v>-0.05024196261704807</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.05523560443261716</v>
+      </c>
+      <c r="E44">
+        <v>0.07786080418947648</v>
+      </c>
+      <c r="F44">
+        <v>0.08367434770906385</v>
+      </c>
+      <c r="G44">
+        <v>-0.06994573529934842</v>
+      </c>
+      <c r="H44">
+        <v>0.05070478238819116</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02573076297422898</v>
+        <v>0.03822292041379394</v>
       </c>
       <c r="C46">
-        <v>0.02360385317524411</v>
+        <v>0.009610893872538006</v>
       </c>
       <c r="D46">
-        <v>-0.03128795257792609</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.04016356448782684</v>
+      </c>
+      <c r="E46">
+        <v>0.03108160122573667</v>
+      </c>
+      <c r="F46">
+        <v>0.01596160245618623</v>
+      </c>
+      <c r="G46">
+        <v>0.003583559410894525</v>
+      </c>
+      <c r="H46">
+        <v>0.03630791933231852</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.03359090376977868</v>
+        <v>0.04189618833998328</v>
       </c>
       <c r="C47">
-        <v>0.02345698373522134</v>
+        <v>0.01507756307211532</v>
       </c>
       <c r="D47">
-        <v>0.005093150479032515</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01510702152114386</v>
+      </c>
+      <c r="E47">
+        <v>0.04187255161255717</v>
+      </c>
+      <c r="F47">
+        <v>-0.008577105680707922</v>
+      </c>
+      <c r="G47">
+        <v>0.03353502634848949</v>
+      </c>
+      <c r="H47">
+        <v>0.02116018999006671</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.0361585709729827</v>
+        <v>0.03955958018848187</v>
       </c>
       <c r="C48">
-        <v>0.0302025362937347</v>
+        <v>0.01212663351087821</v>
       </c>
       <c r="D48">
-        <v>-0.02926055535087703</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.02327765301547436</v>
+      </c>
+      <c r="E48">
+        <v>0.03858051674643245</v>
+      </c>
+      <c r="F48">
+        <v>0.009500109178073734</v>
+      </c>
+      <c r="G48">
+        <v>-0.02232738926613012</v>
+      </c>
+      <c r="H48">
+        <v>0.021058855284507</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1599639722470365</v>
+        <v>0.1959137091536746</v>
       </c>
       <c r="C49">
-        <v>0.05494206688563181</v>
+        <v>0.0297587292362346</v>
       </c>
       <c r="D49">
-        <v>-0.004555459741920402</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.03348303163177146</v>
+      </c>
+      <c r="E49">
+        <v>-0.1812138040164527</v>
+      </c>
+      <c r="F49">
+        <v>0.03015453399291538</v>
+      </c>
+      <c r="G49">
+        <v>0.1354760085503745</v>
+      </c>
+      <c r="H49">
+        <v>-0.2382136042461203</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.04544574851542461</v>
+        <v>0.04838108404283953</v>
       </c>
       <c r="C50">
-        <v>0.03045365057697702</v>
+        <v>0.005866281448621519</v>
       </c>
       <c r="D50">
-        <v>-0.03010409482331282</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.03954458180437868</v>
+      </c>
+      <c r="E50">
+        <v>0.02657601523114362</v>
+      </c>
+      <c r="F50">
+        <v>0.006255841282693762</v>
+      </c>
+      <c r="G50">
+        <v>-0.0009435454880047825</v>
+      </c>
+      <c r="H50">
+        <v>0.07421277197291436</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.02436324860685179</v>
+        <v>0.03395038598606931</v>
       </c>
       <c r="C51">
-        <v>0.003872600274138558</v>
+        <v>0.003070911789911606</v>
       </c>
       <c r="D51">
-        <v>0.002691249399744398</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.002745046876780345</v>
+      </c>
+      <c r="E51">
+        <v>0.006853530587896863</v>
+      </c>
+      <c r="F51">
+        <v>0.0132235148903442</v>
+      </c>
+      <c r="G51">
+        <v>0.02149404172654868</v>
+      </c>
+      <c r="H51">
+        <v>-0.02000259170207395</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1515715589367232</v>
+        <v>0.1605011116325256</v>
       </c>
       <c r="C53">
-        <v>0.08442879742405759</v>
+        <v>0.04494702284421716</v>
       </c>
       <c r="D53">
-        <v>0.0126138905822838</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.03496875928772759</v>
+      </c>
+      <c r="E53">
+        <v>-0.03113298697054748</v>
+      </c>
+      <c r="F53">
+        <v>-0.001051541741169485</v>
+      </c>
+      <c r="G53">
+        <v>0.0134820562018635</v>
+      </c>
+      <c r="H53">
+        <v>0.1967850705130744</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.05812681543342706</v>
+        <v>0.06014263302250437</v>
       </c>
       <c r="C54">
-        <v>0.03367321702664515</v>
+        <v>0.01759304383172756</v>
       </c>
       <c r="D54">
-        <v>-0.01851320376987444</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.01853816302660244</v>
+      </c>
+      <c r="E54">
+        <v>0.05632102602127628</v>
+      </c>
+      <c r="F54">
+        <v>0.01881568482359173</v>
+      </c>
+      <c r="G54">
+        <v>-0.05646162529881336</v>
+      </c>
+      <c r="H54">
+        <v>0.04510028339158932</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09802033726041159</v>
+        <v>0.1007575771459037</v>
       </c>
       <c r="C55">
-        <v>0.05562901866243304</v>
+        <v>0.02217674585892459</v>
       </c>
       <c r="D55">
-        <v>-0.005852213858121386</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.03531536386405621</v>
+      </c>
+      <c r="E55">
+        <v>-0.003892890402192756</v>
+      </c>
+      <c r="F55">
+        <v>0.01766933634457106</v>
+      </c>
+      <c r="G55">
+        <v>-0.008737269470197923</v>
+      </c>
+      <c r="H55">
+        <v>0.1557446767974614</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1486055055457544</v>
+        <v>0.154908283912195</v>
       </c>
       <c r="C56">
-        <v>0.08726382590527032</v>
+        <v>0.03587791549127588</v>
       </c>
       <c r="D56">
-        <v>0.008567559317379819</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.05387041378285942</v>
+      </c>
+      <c r="E56">
+        <v>-0.01257041998740332</v>
+      </c>
+      <c r="F56">
+        <v>0.01910855310341355</v>
+      </c>
+      <c r="G56">
+        <v>0.005060868897753638</v>
+      </c>
+      <c r="H56">
+        <v>0.203543107303223</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2173,1010 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1309398467523324</v>
+        <v>0.09755252680699518</v>
       </c>
       <c r="C58">
-        <v>-0.01715400704618615</v>
+        <v>-0.07263518264872522</v>
       </c>
       <c r="D58">
-        <v>-0.0493963334040162</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.01063916361386969</v>
+      </c>
+      <c r="E58">
+        <v>0.1264073907109323</v>
+      </c>
+      <c r="F58">
+        <v>0.03947974426752904</v>
+      </c>
+      <c r="G58">
+        <v>0.0829403138629322</v>
+      </c>
+      <c r="H58">
+        <v>-0.1937908090078183</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1155738051965012</v>
+        <v>0.1484398438777181</v>
       </c>
       <c r="C59">
-        <v>0.05646202408773094</v>
+        <v>0.1995999597714496</v>
       </c>
       <c r="D59">
-        <v>0.4143753926876734</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.3094097207789848</v>
+      </c>
+      <c r="E59">
+        <v>0.02832852701773039</v>
+      </c>
+      <c r="F59">
+        <v>0.005075364059270441</v>
+      </c>
+      <c r="G59">
+        <v>-0.005513137837604167</v>
+      </c>
+      <c r="H59">
+        <v>0.01661021086668955</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2053110601288503</v>
+        <v>0.2372958699621105</v>
       </c>
       <c r="C60">
-        <v>0.1059491143861701</v>
+        <v>0.05565268061718402</v>
       </c>
       <c r="D60">
-        <v>0.005107634345582586</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.05932833077507664</v>
+      </c>
+      <c r="E60">
+        <v>-0.1300775921101218</v>
+      </c>
+      <c r="F60">
+        <v>0.04328796245280794</v>
+      </c>
+      <c r="G60">
+        <v>0.01843712417405473</v>
+      </c>
+      <c r="H60">
+        <v>-0.1579410481090831</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.07554832572130793</v>
+        <v>0.08444441450601058</v>
       </c>
       <c r="C61">
-        <v>0.05172333761448682</v>
+        <v>0.0194586573709257</v>
       </c>
       <c r="D61">
-        <v>-0.02949790273143033</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.05133592824387166</v>
+      </c>
+      <c r="E61">
+        <v>0.009488230170635114</v>
+      </c>
+      <c r="F61">
+        <v>0.01481071853770208</v>
+      </c>
+      <c r="G61">
+        <v>-0.02987386629075086</v>
+      </c>
+      <c r="H61">
+        <v>0.0704577535281663</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1310377162544342</v>
+        <v>0.1374199955001532</v>
       </c>
       <c r="C62">
-        <v>0.05282113444679832</v>
+        <v>0.0093316017154175</v>
       </c>
       <c r="D62">
-        <v>0.006743152078338637</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.04480839442786702</v>
+      </c>
+      <c r="E62">
+        <v>-0.04112523408782641</v>
+      </c>
+      <c r="F62">
+        <v>-0.02738039974613147</v>
+      </c>
+      <c r="G62">
+        <v>-0.02358253298736331</v>
+      </c>
+      <c r="H62">
+        <v>0.197701273524247</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.05055719040332809</v>
+        <v>0.04882095303567243</v>
       </c>
       <c r="C63">
-        <v>0.0268594517014493</v>
+        <v>0.005793323753734762</v>
       </c>
       <c r="D63">
-        <v>-0.02627717990865994</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.02664695337836188</v>
+      </c>
+      <c r="E63">
+        <v>0.03799874044158669</v>
+      </c>
+      <c r="F63">
+        <v>0.0003834675733285428</v>
+      </c>
+      <c r="G63">
+        <v>-0.03644966575463021</v>
+      </c>
+      <c r="H63">
+        <v>0.03927023798317331</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1063804055958666</v>
+        <v>0.1118562409460866</v>
       </c>
       <c r="C64">
-        <v>0.04497544267247054</v>
+        <v>0.01673377082006556</v>
       </c>
       <c r="D64">
-        <v>-0.01662308422591578</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.03105071531586035</v>
+      </c>
+      <c r="E64">
+        <v>0.03967421664724908</v>
+      </c>
+      <c r="F64">
+        <v>0.04755184618886492</v>
+      </c>
+      <c r="G64">
+        <v>-0.05852278291995842</v>
+      </c>
+      <c r="H64">
+        <v>0.02063967886718789</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1243176852838489</v>
+        <v>0.1306298737470016</v>
       </c>
       <c r="C65">
-        <v>0.06825303005705548</v>
+        <v>0.04469405287789888</v>
       </c>
       <c r="D65">
-        <v>-0.003837672382217119</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.02329603809748464</v>
+      </c>
+      <c r="E65">
+        <v>-0.003666019809716679</v>
+      </c>
+      <c r="F65">
+        <v>0.02664824683460308</v>
+      </c>
+      <c r="G65">
+        <v>-0.07686908064110248</v>
+      </c>
+      <c r="H65">
+        <v>-0.2023318502722559</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1472904813622671</v>
+        <v>0.1518923137208289</v>
       </c>
       <c r="C66">
-        <v>0.09437718949295358</v>
+        <v>0.01728569683393831</v>
       </c>
       <c r="D66">
-        <v>-0.08989825315800802</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1153757993729792</v>
+      </c>
+      <c r="E66">
+        <v>-0.0214171281370913</v>
+      </c>
+      <c r="F66">
+        <v>0.002139500276502559</v>
+      </c>
+      <c r="G66">
+        <v>-0.07579251901423086</v>
+      </c>
+      <c r="H66">
+        <v>0.09318257908577016</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.08201433765513948</v>
+        <v>0.08779277064390066</v>
       </c>
       <c r="C67">
-        <v>0.02275511669018725</v>
+        <v>-0.006456148419533955</v>
       </c>
       <c r="D67">
-        <v>-0.01396469413769023</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.03675217311118037</v>
+      </c>
+      <c r="E67">
+        <v>0.01815513933332308</v>
+      </c>
+      <c r="F67">
+        <v>0.01261984896233194</v>
+      </c>
+      <c r="G67">
+        <v>0.01221045412582894</v>
+      </c>
+      <c r="H67">
+        <v>0.02333328757195491</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.04755719917642297</v>
+        <v>0.06449834987436853</v>
       </c>
       <c r="C68">
-        <v>0.02784350474280971</v>
+        <v>0.1482278082987363</v>
       </c>
       <c r="D68">
-        <v>0.2609172781046915</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2387719150875682</v>
+      </c>
+      <c r="E68">
+        <v>0.04405815743738844</v>
+      </c>
+      <c r="F68">
+        <v>0.01023431577273868</v>
+      </c>
+      <c r="G68">
+        <v>-0.0009486171326876501</v>
+      </c>
+      <c r="H68">
+        <v>0.01381850652322617</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05734692825190556</v>
+        <v>0.05435511287215663</v>
       </c>
       <c r="C69">
-        <v>0.02756603376633598</v>
+        <v>0.001876580067077727</v>
       </c>
       <c r="D69">
-        <v>-0.0170279487233397</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.02376510580190588</v>
+      </c>
+      <c r="E69">
+        <v>0.02104098542366295</v>
+      </c>
+      <c r="F69">
+        <v>-0.01453134785676957</v>
+      </c>
+      <c r="G69">
+        <v>0.002010741874753469</v>
+      </c>
+      <c r="H69">
+        <v>0.04099555561703358</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>0.009945075999142393</v>
+        <v>0.03244391696706339</v>
       </c>
       <c r="C70">
-        <v>-0.003287107866226407</v>
+        <v>0.002460360269480995</v>
       </c>
       <c r="D70">
-        <v>0.01028056365714895</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.005869294039036151</v>
+      </c>
+      <c r="E70">
+        <v>-0.02544059506033113</v>
+      </c>
+      <c r="F70">
+        <v>-0.01088739593156949</v>
+      </c>
+      <c r="G70">
+        <v>0.02519615126870539</v>
+      </c>
+      <c r="H70">
+        <v>-0.02901755263982434</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.04410910696342303</v>
+        <v>0.07007528351039453</v>
       </c>
       <c r="C71">
-        <v>0.02506409211163522</v>
+        <v>0.1629769587144069</v>
       </c>
       <c r="D71">
-        <v>0.2909123157875328</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2587235136826875</v>
+      </c>
+      <c r="E71">
+        <v>0.04028868646931626</v>
+      </c>
+      <c r="F71">
+        <v>0.03887139190164237</v>
+      </c>
+      <c r="G71">
+        <v>-7.077317945010913e-06</v>
+      </c>
+      <c r="H71">
+        <v>0.0142735952733424</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1370313226177153</v>
+        <v>0.1409615387020845</v>
       </c>
       <c r="C72">
-        <v>0.06773730903993246</v>
+        <v>0.03598032503865575</v>
       </c>
       <c r="D72">
-        <v>0.02633168808386864</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.008686649637899618</v>
+      </c>
+      <c r="E72">
+        <v>-0.03714261077257085</v>
+      </c>
+      <c r="F72">
+        <v>-0.1620533441808891</v>
+      </c>
+      <c r="G72">
+        <v>-0.1118391023070119</v>
+      </c>
+      <c r="H72">
+        <v>-0.000942338733691414</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2754190312706343</v>
+        <v>0.278970488305028</v>
       </c>
       <c r="C73">
-        <v>0.09648267486412306</v>
+        <v>-0.009644944539249115</v>
       </c>
       <c r="D73">
-        <v>-0.03706166158607797</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.09412314880431918</v>
+      </c>
+      <c r="E73">
+        <v>-0.2737382740636033</v>
+      </c>
+      <c r="F73">
+        <v>0.06210025313464002</v>
+      </c>
+      <c r="G73">
+        <v>0.2507058967079803</v>
+      </c>
+      <c r="H73">
+        <v>-0.3821795200554735</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.07733145847709579</v>
+        <v>0.08917512649328303</v>
       </c>
       <c r="C74">
-        <v>0.07499505599457763</v>
+        <v>0.03884174172137091</v>
       </c>
       <c r="D74">
-        <v>-0.002628714734510105</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.05586273428372024</v>
+      </c>
+      <c r="E74">
+        <v>-0.007219261217575215</v>
+      </c>
+      <c r="F74">
+        <v>8.16204985601257e-05</v>
+      </c>
+      <c r="G74">
+        <v>0.039248977754006</v>
+      </c>
+      <c r="H74">
+        <v>0.1302429437691713</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.1029747990506176</v>
+        <v>0.1029216567136394</v>
       </c>
       <c r="C75">
-        <v>0.05592617353712374</v>
+        <v>0.01386981819787499</v>
       </c>
       <c r="D75">
-        <v>0.002551223345655805</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03158542160838608</v>
+      </c>
+      <c r="E75">
+        <v>-2.495439025789979e-05</v>
+      </c>
+      <c r="F75">
+        <v>-0.001332150539488078</v>
+      </c>
+      <c r="G75">
+        <v>0.01190283749481536</v>
+      </c>
+      <c r="H75">
+        <v>0.1036648791841708</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1259180827559312</v>
+        <v>0.1366290670157363</v>
       </c>
       <c r="C76">
-        <v>0.07537782952655311</v>
+        <v>0.02948367821484696</v>
       </c>
       <c r="D76">
-        <v>-0.01722668974130103</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.06379290200044981</v>
+      </c>
+      <c r="E76">
+        <v>0.008788603754336655</v>
+      </c>
+      <c r="F76">
+        <v>0.03352242315485821</v>
+      </c>
+      <c r="G76">
+        <v>0.002785004260913501</v>
+      </c>
+      <c r="H76">
+        <v>0.2445331347955698</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1187188831717859</v>
+        <v>0.09850354171333847</v>
       </c>
       <c r="C77">
-        <v>0.03378400825844798</v>
+        <v>-0.02368470730976114</v>
       </c>
       <c r="D77">
-        <v>-0.0767542717759826</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.04098996547688023</v>
+      </c>
+      <c r="E77">
+        <v>0.05905742862925074</v>
+      </c>
+      <c r="F77">
+        <v>0.06777711670145538</v>
+      </c>
+      <c r="G77">
+        <v>-0.8022643017422796</v>
+      </c>
+      <c r="H77">
+        <v>-0.2633488955127942</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.1064749136290863</v>
+        <v>0.1501090513511783</v>
       </c>
       <c r="C78">
-        <v>0.05271142248011978</v>
+        <v>0.02281448607936353</v>
       </c>
       <c r="D78">
-        <v>-0.07904155129284871</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.08747893297462617</v>
+      </c>
+      <c r="E78">
+        <v>0.04718238822404755</v>
+      </c>
+      <c r="F78">
+        <v>0.05744277272161182</v>
+      </c>
+      <c r="G78">
+        <v>-0.03401156567429511</v>
+      </c>
+      <c r="H78">
+        <v>-0.1013318959823587</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1367873125033283</v>
+        <v>0.1429347114224038</v>
       </c>
       <c r="C79">
-        <v>0.06991177309867469</v>
+        <v>0.01903698382942471</v>
       </c>
       <c r="D79">
-        <v>-0.02572076139187905</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.05501899119124971</v>
+      </c>
+      <c r="E79">
+        <v>-0.01355681363085139</v>
+      </c>
+      <c r="F79">
+        <v>0.01827826020721009</v>
+      </c>
+      <c r="G79">
+        <v>-0.01562068636942767</v>
+      </c>
+      <c r="H79">
+        <v>0.1679881593817938</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.03634939767393791</v>
+        <v>0.03889802096022468</v>
       </c>
       <c r="C80">
-        <v>0.02262874739493594</v>
+        <v>0.009145641221295785</v>
       </c>
       <c r="D80">
-        <v>-0.02687738962657873</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.01830373337121919</v>
+      </c>
+      <c r="E80">
+        <v>-0.04443944360026602</v>
+      </c>
+      <c r="F80">
+        <v>0.006687885683816831</v>
+      </c>
+      <c r="G80">
+        <v>0.01137831397503659</v>
+      </c>
+      <c r="H80">
+        <v>0.03082665447598965</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1247260322843183</v>
+        <v>0.1282660706255431</v>
       </c>
       <c r="C81">
-        <v>0.07655609580537916</v>
+        <v>0.03166764730638399</v>
       </c>
       <c r="D81">
-        <v>-0.009632744163184027</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.0418355695776924</v>
+      </c>
+      <c r="E81">
+        <v>0.0004827108378064177</v>
+      </c>
+      <c r="F81">
+        <v>0.0222016758513153</v>
+      </c>
+      <c r="G81">
+        <v>0.009591163001569118</v>
+      </c>
+      <c r="H81">
+        <v>0.1584224956735696</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1281503875734096</v>
+        <v>0.1305181711459544</v>
       </c>
       <c r="C82">
-        <v>0.06871457814460583</v>
+        <v>0.02692751815985027</v>
       </c>
       <c r="D82">
-        <v>-0.01029043352116795</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.04364209390011798</v>
+      </c>
+      <c r="E82">
+        <v>-0.01943779635689107</v>
+      </c>
+      <c r="F82">
+        <v>0.03579348005891091</v>
+      </c>
+      <c r="G82">
+        <v>0.01487754933734362</v>
+      </c>
+      <c r="H82">
+        <v>0.2380436237285233</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.06478425669077804</v>
+        <v>0.0802564951135846</v>
       </c>
       <c r="C83">
-        <v>-0.02183023274521138</v>
+        <v>-0.03761889518774188</v>
       </c>
       <c r="D83">
-        <v>-0.02820301782846305</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.01421545410630947</v>
+      </c>
+      <c r="E83">
+        <v>0.01509545786864545</v>
+      </c>
+      <c r="F83">
+        <v>0.03175437198573688</v>
+      </c>
+      <c r="G83">
+        <v>0.05119783052042343</v>
+      </c>
+      <c r="H83">
+        <v>-0.02484217968932384</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.02975895021853339</v>
+        <v>0.03312249680564526</v>
       </c>
       <c r="C84">
-        <v>0.04359087535314461</v>
+        <v>0.01363831631495203</v>
       </c>
       <c r="D84">
-        <v>-0.02883298550459818</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.04810227472061528</v>
+      </c>
+      <c r="E84">
+        <v>0.02190454978265822</v>
+      </c>
+      <c r="F84">
+        <v>-0.04052622367761567</v>
+      </c>
+      <c r="G84">
+        <v>0.02361155955138849</v>
+      </c>
+      <c r="H84">
+        <v>0.02625031639178008</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1152156141285453</v>
+        <v>0.1219918729628439</v>
       </c>
       <c r="C85">
-        <v>0.04665523787435385</v>
+        <v>0.006020502236822462</v>
       </c>
       <c r="D85">
-        <v>-0.04283441379543132</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.04624521589603469</v>
+      </c>
+      <c r="E85">
+        <v>0.008883775268397653</v>
+      </c>
+      <c r="F85">
+        <v>0.03969863713406847</v>
+      </c>
+      <c r="G85">
+        <v>0.008770463958356969</v>
+      </c>
+      <c r="H85">
+        <v>0.1443332296296363</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.05003426240556334</v>
+        <v>0.05094161427513145</v>
       </c>
       <c r="C86">
-        <v>0.03241657854220411</v>
+        <v>-0.0005522945171571611</v>
       </c>
       <c r="D86">
-        <v>-0.06733061659121901</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.04447517265792013</v>
+      </c>
+      <c r="E86">
+        <v>0.04142015289727025</v>
+      </c>
+      <c r="F86">
+        <v>0.02728541892463702</v>
+      </c>
+      <c r="G86">
+        <v>0.01934463595535926</v>
+      </c>
+      <c r="H86">
+        <v>-0.05301929941489113</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.1191321666592262</v>
+        <v>0.1252300345010391</v>
       </c>
       <c r="C87">
-        <v>0.08167469156561226</v>
+        <v>0.01623901183339739</v>
       </c>
       <c r="D87">
-        <v>-0.0636281433141673</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.08227047094847531</v>
+      </c>
+      <c r="E87">
+        <v>0.02739173052933373</v>
+      </c>
+      <c r="F87">
+        <v>0.0272011009926709</v>
+      </c>
+      <c r="G87">
+        <v>-0.1520981906070607</v>
+      </c>
+      <c r="H87">
+        <v>-0.06817333669362331</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.05516546278530825</v>
+        <v>0.06322439058822711</v>
       </c>
       <c r="C88">
-        <v>0.03816673340749435</v>
+        <v>0.01039772178610988</v>
       </c>
       <c r="D88">
-        <v>-0.02673919463765412</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.04738950995606102</v>
+      </c>
+      <c r="E88">
+        <v>-0.000532384902125378</v>
+      </c>
+      <c r="F88">
+        <v>0.02299177893166841</v>
+      </c>
+      <c r="G88">
+        <v>-0.009496194300749446</v>
+      </c>
+      <c r="H88">
+        <v>0.04456759382903817</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.07279292150992542</v>
+        <v>0.1088125349950073</v>
       </c>
       <c r="C89">
-        <v>0.04901343600815029</v>
+        <v>0.2085760312739627</v>
       </c>
       <c r="D89">
-        <v>0.3245475009732218</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.3024932558281445</v>
+      </c>
+      <c r="E89">
+        <v>0.05317571132036006</v>
+      </c>
+      <c r="F89">
+        <v>0.07625999344277955</v>
+      </c>
+      <c r="G89">
+        <v>0.0276174224177647</v>
+      </c>
+      <c r="H89">
+        <v>0.02625561085610952</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.05790608933885312</v>
+        <v>0.08314090735964363</v>
       </c>
       <c r="C90">
-        <v>0.03220102300303306</v>
+        <v>0.1592846662907802</v>
       </c>
       <c r="D90">
-        <v>0.2785053782696043</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2490434452054631</v>
+      </c>
+      <c r="E90">
+        <v>0.05221105399278873</v>
+      </c>
+      <c r="F90">
+        <v>0.03042027823526847</v>
+      </c>
+      <c r="G90">
+        <v>-0.03483474339564397</v>
+      </c>
+      <c r="H90">
+        <v>-0.01779482568682005</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.0899680790022491</v>
+        <v>0.08994200702215924</v>
       </c>
       <c r="C91">
-        <v>0.05681261418311536</v>
+        <v>0.01657438044698878</v>
       </c>
       <c r="D91">
-        <v>-0.004619018171035159</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.03875255221861795</v>
+      </c>
+      <c r="E91">
+        <v>0.00303409890961444</v>
+      </c>
+      <c r="F91">
+        <v>0.005237178356705288</v>
+      </c>
+      <c r="G91">
+        <v>0.02357548225524519</v>
+      </c>
+      <c r="H91">
+        <v>0.08502502604443418</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.05870826166463982</v>
+        <v>0.08263574191163632</v>
       </c>
       <c r="C92">
-        <v>0.04157874597538784</v>
+        <v>0.1854575393962383</v>
       </c>
       <c r="D92">
-        <v>0.3353129378972585</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2844053068269082</v>
+      </c>
+      <c r="E92">
+        <v>0.04846544781995506</v>
+      </c>
+      <c r="F92">
+        <v>0.03648643656823891</v>
+      </c>
+      <c r="G92">
+        <v>-0.005774108296357657</v>
+      </c>
+      <c r="H92">
+        <v>0.03048497195224543</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.05245102001126412</v>
+        <v>0.08109220462304115</v>
       </c>
       <c r="C93">
-        <v>0.04251365943823684</v>
+        <v>0.1810207295630242</v>
       </c>
       <c r="D93">
-        <v>0.3084872923602253</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2609632385526384</v>
+      </c>
+      <c r="E93">
+        <v>0.01838757422840052</v>
+      </c>
+      <c r="F93">
+        <v>0.03043900344135379</v>
+      </c>
+      <c r="G93">
+        <v>-0.02035502490623292</v>
+      </c>
+      <c r="H93">
+        <v>0.004769775706909794</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.1291853367592479</v>
+        <v>0.126768339574707</v>
       </c>
       <c r="C94">
-        <v>0.04386641445442588</v>
+        <v>-0.00649504977237625</v>
       </c>
       <c r="D94">
-        <v>-0.03936533990413688</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04509558300686758</v>
+      </c>
+      <c r="E94">
+        <v>-0.02243372613225778</v>
+      </c>
+      <c r="F94">
+        <v>0.01888491585164892</v>
+      </c>
+      <c r="G94">
+        <v>0.04458946730785482</v>
+      </c>
+      <c r="H94">
+        <v>0.09992785916866719</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.1189688156775403</v>
+        <v>0.1318455934535076</v>
       </c>
       <c r="C95">
-        <v>0.03677903562371027</v>
+        <v>-0.009993121443315942</v>
       </c>
       <c r="D95">
-        <v>-0.06440708410799907</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.06251239711190283</v>
+      </c>
+      <c r="E95">
+        <v>0.009778455418991135</v>
+      </c>
+      <c r="F95">
+        <v>0.04860765695205635</v>
+      </c>
+      <c r="G95">
+        <v>-0.04877294345651226</v>
+      </c>
+      <c r="H95">
+        <v>-0.1105073749492943</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3187,100 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0.2249162038469914</v>
+        <v>0.1909891091535091</v>
       </c>
       <c r="C97">
-        <v>0.06309785433540689</v>
+        <v>0.005651823386589346</v>
       </c>
       <c r="D97">
-        <v>0.1270668382530019</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.05550166813098874</v>
+      </c>
+      <c r="E97">
+        <v>-0.01842125600853053</v>
+      </c>
+      <c r="F97">
+        <v>-0.9387855825032333</v>
+      </c>
+      <c r="G97">
+        <v>-0.05409066272889156</v>
+      </c>
+      <c r="H97">
+        <v>-0.02168220572431378</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.2423241661310114</v>
+        <v>0.2755606099346316</v>
       </c>
       <c r="C98">
-        <v>0.06966706231455397</v>
+        <v>0.01157102874816663</v>
       </c>
       <c r="D98">
-        <v>-0.01088470130688899</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.04913855919808006</v>
+      </c>
+      <c r="E98">
+        <v>-0.2203707749395727</v>
+      </c>
+      <c r="F98">
+        <v>0.03038142478461176</v>
+      </c>
+      <c r="G98">
+        <v>0.2822857044384837</v>
+      </c>
+      <c r="H98">
+        <v>-0.1591534666956078</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>0.4443468068945147</v>
+        <v>0.2814101331677153</v>
       </c>
       <c r="C99">
-        <v>-0.8788374724535263</v>
+        <v>-0.8333880115276316</v>
       </c>
       <c r="D99">
-        <v>-0.002353914641987636</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.4332640246558179</v>
+      </c>
+      <c r="E99">
+        <v>0.07324463067180922</v>
+      </c>
+      <c r="F99">
+        <v>0.07173298653355108</v>
+      </c>
+      <c r="G99">
+        <v>-0.006886341151793382</v>
+      </c>
+      <c r="H99">
+        <v>0.06573267434935817</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3291,48 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.04338007213224528</v>
+        <v>0.04877498923217188</v>
       </c>
       <c r="C101">
-        <v>0.04320822052763529</v>
+        <v>0.02899017670080563</v>
       </c>
       <c r="D101">
-        <v>0.001356739426290907</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.02255607721398109</v>
+      </c>
+      <c r="E101">
+        <v>0.05009212481928734</v>
+      </c>
+      <c r="F101">
+        <v>0.02101492917123866</v>
+      </c>
+      <c r="G101">
+        <v>-0.003190681577625297</v>
+      </c>
+      <c r="H101">
+        <v>0.08856267299151831</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3343,22 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
